--- a/Desktop/MYSARAH/ICPMS/130225/IQC.xlsx
+++ b/Desktop/MYSARAH/ICPMS/130225/IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\ICPMS\130225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC7C16-A99E-470D-9BF2-B32C74D74134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B815A-FACE-4F0F-A888-4909594F1949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,6 +826,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,6 +842,117 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -871,116 +984,22 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1012,25 +1031,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1372,10 +1372,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -1398,10 +1398,10 @@
       <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
@@ -1440,10 +1440,10 @@
       <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="20" t="s">
@@ -1488,10 +1488,10 @@
       <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="20" t="s">
@@ -1536,10 +1536,10 @@
       <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="20" t="s">
@@ -1584,10 +1584,10 @@
       <c r="B33" s="21"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="20" t="s">
@@ -1660,7 +1660,7 @@
   <dimension ref="A2:B36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1670,16 +1670,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1700,10 +1700,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="20" t="s">
@@ -1754,10 +1754,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="20" t="s">
@@ -1810,10 +1810,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="35"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="20" t="s">
@@ -1866,10 +1866,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="20" t="s">
@@ -1922,16 +1922,16 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="32"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="27">
-        <v>45702</v>
+        <v>45701</v>
       </c>
     </row>
   </sheetData>
@@ -2018,95 +2018,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="82" t="str">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="str">
         <f>FormTitan!B3</f>
         <v>120524</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="75">
         <f>FormTitan!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="75">
         <f>FormTitan!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="80">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2125,120 +2125,120 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="37">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="37">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="37">
         <f>FormTitan!B11</f>
         <v>0</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="53" t="e">
+      <c r="F8" s="56" t="e">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="48" t="e">
+      <c r="H8" s="77"/>
+      <c r="I8" s="47" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="74" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="49"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="37">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="37">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="37">
         <f>FormTitan!B12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="53" t="e">
+      <c r="F10" s="56" t="e">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="49"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="51" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="80">
         <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2257,120 +2257,120 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="37">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="37">
         <f>FormTitan!B17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="37">
         <f>FormTitan!B18</f>
         <v>0</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="e">
+      <c r="F14" s="56" t="e">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="48" t="e">
+      <c r="H14" s="59"/>
+      <c r="I14" s="47" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="63"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="51" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="37">
         <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="37">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="37">
         <f>FormTitan!B19</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53" t="e">
+      <c r="F16" s="56" t="e">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="49"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="51" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="80">
         <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2389,120 +2389,120 @@
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="37">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="37">
         <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="37">
         <f>FormTitan!B25</f>
         <v>0</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="53" t="e">
+      <c r="F20" s="56" t="e">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="48" t="e">
+      <c r="H20" s="59"/>
+      <c r="I20" s="47" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="51" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="37">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="37">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="37">
         <f>FormTitan!B26</f>
         <v>0</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="53" t="e">
+      <c r="F22" s="56" t="e">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="49"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="51" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="80">
         <f>FormTitan!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2521,103 +2521,103 @@
       <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="37">
         <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="37">
         <f>FormTitan!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="37">
         <f>FormTitan!B32</f>
         <v>0</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="54">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="53" t="e">
+      <c r="F26" s="56" t="e">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="48" t="e">
+      <c r="H26" s="59"/>
+      <c r="I26" s="47" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="49"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="37">
         <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="37">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="37">
         <f>FormTitan!B33</f>
         <v>0</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="54">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="53" t="e">
+      <c r="F28" s="56" t="e">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="49"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2631,58 +2631,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="37">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="82">
         <f>FormTitan!B35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="41">
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="86">
         <f>FormTitan!B36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="42"/>
+      <c r="I31" s="87"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="81"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13271,39 +13271,50 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -13320,50 +13331,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13378,7 +13378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
@@ -13397,95 +13397,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="66" t="str">
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="75" t="str">
         <f>FormGH!B3</f>
         <v>130225</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66" t="str">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="75" t="str">
         <f>FormGH!B4</f>
         <v>IQC SCAP 050225</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="75" t="str">
         <f>FormGH!B5</f>
         <v>RB GH B 050225</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="80">
         <f>FormGH!B7</f>
         <v>1.4E-2</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
@@ -13507,117 +13507,117 @@
       <c r="F7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="37">
         <f>FormGH!B8</f>
         <v>1.502</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="37">
         <f>FormGH!B10</f>
         <v>14.423999999999999</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="37">
         <f>FormGH!B11</f>
         <v>4800.6809999999996</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="97">
         <f>D8-C8</f>
         <v>4786.2569999999996</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="56">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>0.9585277351999999</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="48">
+      <c r="H8" s="96"/>
+      <c r="I8" s="47">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>1.0303828969543473E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="51" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="37">
         <f>FormGH!B9</f>
         <v>1.502</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="37">
         <f>C8</f>
         <v>14.423999999999999</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="37">
         <f>FormGH!B12</f>
         <v>4751.6170000000002</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="97">
         <f>D10-C10</f>
         <v>4737.1930000000002</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="56">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>0.94870185146666663</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="51" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="100"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="80">
         <f>FormGH!B14</f>
         <v>2.7E-2</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
@@ -13639,117 +13639,117 @@
       <c r="F13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="37">
         <f>FormGH!B15</f>
         <v>1.502</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="37">
         <f>FormGH!B17</f>
         <v>6.5049999999999999</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="37">
         <f>FormGH!B18</f>
         <v>284.18700000000001</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="97">
         <f>D14-C14</f>
         <v>277.68200000000002</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="56">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>0.92684080888888909</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="48">
+      <c r="H14" s="96"/>
+      <c r="I14" s="47">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>8.1714786596606291E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="100"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="51" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="37">
         <f>FormGH!B16</f>
         <v>1.502</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="37">
         <f>C14</f>
         <v>6.5049999999999999</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="37">
         <f>FormGH!B19</f>
         <v>284.41399999999999</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="97">
         <f>D16-C16</f>
         <v>277.90899999999999</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="56">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>0.92759848444444448</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="51" t="s">
+      <c r="A17" s="93"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="100"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="99">
         <f>FormGH!B21</f>
         <v>0.33200000000000002</v>
       </c>
-      <c r="H18" s="89"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
@@ -13771,117 +13771,117 @@
       <c r="F19" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="37">
         <f>FormGH!B22</f>
         <v>1.502</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="37">
         <f>FormGH!B24</f>
         <v>9.7040000000000006</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="37">
         <f>FormGH!B25</f>
         <v>481.02499999999998</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <f>D20-C20</f>
         <v>471.32099999999997</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="56">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>0.94389885600000001</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="48">
+      <c r="H20" s="96"/>
+      <c r="I20" s="47">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>2.2718747417120075E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="51" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="99"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="37">
         <f>FormGH!B23</f>
         <v>1.502</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="37">
         <f>C20</f>
         <v>9.7040000000000006</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="37">
         <f>FormGH!B26</f>
         <v>482.09699999999998</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <f>D22-C22</f>
         <v>472.39299999999997</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="56">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>0.94604571466666654</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="99"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="51" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="100"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="93"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="80">
         <f>FormGH!B28</f>
         <v>1.2689999999999999</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="1" t="s">
         <v>6</v>
       </c>
@@ -13903,154 +13903,154 @@
       <c r="F25" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="37">
         <f>FormGH!B29</f>
         <v>1.502</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="37">
         <f>FormGH!B31</f>
         <v>199.27099999999999</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="37">
         <f>FormGH!B32</f>
         <v>9490.0930000000008</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="54">
         <f>D26-C26</f>
         <v>9290.8220000000001</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="56">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>0.93032097626666665</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="103"/>
-      <c r="I26" s="48">
+      <c r="H26" s="96"/>
+      <c r="I26" s="47">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>4.1889019283867165E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="51" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="99"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="37">
         <f>FormGH!B30</f>
         <v>1.502</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="37">
         <f>C26</f>
         <v>199.27099999999999</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="37">
         <f>FormGH!B33</f>
         <v>9451.2559999999994</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="54">
         <f>D28-C28</f>
         <v>9251.9849999999988</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="56">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>0.92643209799999982</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="103"/>
-      <c r="I28" s="99"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="51" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="100"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="90" t="str">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="101" t="str">
         <f>FormGH!B35</f>
         <v>AMIR / MAISARAH</v>
       </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="94">
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="105">
         <f>FormGH!B36</f>
-        <v>45702</v>
-      </c>
-      <c r="I30" s="95"/>
+        <v>45701</v>
+      </c>
+      <c r="I30" s="106"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="97"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
@@ -24636,39 +24636,50 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -24685,50 +24696,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
